--- a/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -236,7 +236,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -246,13 +246,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -313,7 +313,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -596,7 +596,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -754,7 +754,6 @@
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:10"/>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="1" t="s">
         <x:v>44</x:v>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -263,7 +263,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF40E0D0"/>
-        <x:bgColor rgb="FF40E0D0"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -285,11 +285,8 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
